--- a/Clientes Pagamento.xlsx
+++ b/Clientes Pagamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\Intensivão de Python\Aula 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejdoj\1projetos\1 unb\Códdigos úteis em python\porra toda\Aula 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7FED7-45F2-46AD-930F-6FABD9ADB153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB892F5-BF28-4E8A-8DDD-6239A9710E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{D662EAA0-DD47-4027-873C-D6C885606B5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D662EAA0-DD47-4027-873C-D6C885606B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -114,153 +105,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>pythonimpressionador+1@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+2@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+3@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+4@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+5@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+6@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+7@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+8@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+9@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+10@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+11@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+12@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+13@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+14@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+15@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+16@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+17@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+18@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+19@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+20@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+21@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+22@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+23@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+24@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+25@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+26@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+27@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+28@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+29@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+30@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+31@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+32@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+33@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+34@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+35@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+36@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+37@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+38@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+39@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+40@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+41@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+42@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+43@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+44@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+45@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+46@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+47@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+48@gmail.com</t>
-  </si>
-  <si>
-    <t>pythonimpressionador+49@gmail.com</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -406,6 +250,153 @@
   </si>
   <si>
     <t>Andressa</t>
+  </si>
+  <si>
+    <t>Erivan1@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan2@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan3@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan4@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan5@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan6@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan7@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan8@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan9@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan10@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan11@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan12@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan13@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan14@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan15@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan16@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan17@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan18@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan19@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan20@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan21@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan22@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan23@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan24@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan25@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan26@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan27@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan28@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan29@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan30@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan31@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan32@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan33@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan34@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan35@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan36@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan37@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan38@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan39@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan40@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan41@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan42@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan43@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan44@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan45@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan46@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan47@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan48@gmail.com</t>
+  </si>
+  <si>
+    <t>Erivan49@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -774,23 +765,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3167F88-91EC-4AE8-890F-02D0657F1DDA}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -802,12 +795,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11122233312</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>8950</v>
@@ -816,15 +809,15 @@
         <v>8950</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11122233345</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1">
         <v>8950</v>
@@ -833,15 +826,15 @@
         <v>8950</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11122233367</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1">
         <v>8950</v>
@@ -850,15 +843,15 @@
         <v>8950</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22233344456</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>8950</v>
@@ -866,16 +859,16 @@
       <c r="D5" s="1">
         <v>8950</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22233344484</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>8950</v>
@@ -883,16 +876,16 @@
       <c r="D6" s="1">
         <v>8950</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25566677829</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>8950</v>
@@ -900,16 +893,16 @@
       <c r="D7" s="1">
         <v>8950</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>28900011174</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>8341</v>
@@ -917,16 +910,16 @@
       <c r="D8" s="1">
         <v>8950</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>32233344520</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>2763</v>
@@ -934,16 +927,16 @@
       <c r="D9" s="1">
         <v>8950</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35566677865</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>8950</v>
@@ -951,16 +944,16 @@
       <c r="D10" s="1">
         <v>8950</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>38900011211</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>8950</v>
@@ -968,16 +961,16 @@
       <c r="D11" s="1">
         <v>8950</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>42233344556</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>8950</v>
@@ -985,16 +978,16 @@
       <c r="D12" s="1">
         <v>8950</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45566677901</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>8950</v>
@@ -1002,16 +995,16 @@
       <c r="D13" s="1">
         <v>8950</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>48900011247</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>8950</v>
@@ -1019,16 +1012,16 @@
       <c r="D14" s="1">
         <v>8950</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>52233344592</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
         <v>5223</v>
@@ -1036,16 +1029,16 @@
       <c r="D15" s="1">
         <v>8950</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>55566677938</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
         <v>8950</v>
@@ -1053,16 +1046,16 @@
       <c r="D16" s="1">
         <v>8950</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>58900011283</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <v>8950</v>
@@ -1070,16 +1063,16 @@
       <c r="D17" s="1">
         <v>8950</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>62233344628</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>8950</v>
@@ -1087,16 +1080,16 @@
       <c r="D18" s="1">
         <v>8950</v>
       </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>65566677974</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>8950</v>
@@ -1104,16 +1097,16 @@
       <c r="D19" s="1">
         <v>8950</v>
       </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>68900011319</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
         <v>8950</v>
@@ -1121,16 +1114,16 @@
       <c r="D20" s="1">
         <v>8950</v>
       </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>72233344665</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>8950</v>
@@ -1138,16 +1131,16 @@
       <c r="D21" s="1">
         <v>8950</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>75566678010</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>8950</v>
@@ -1155,16 +1148,16 @@
       <c r="D22" s="1">
         <v>8950</v>
       </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>78900011355</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>8950</v>
@@ -1172,33 +1165,33 @@
       <c r="D23" s="1">
         <v>8950</v>
       </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>82233344701</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8950</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="1">
-        <v>8950</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8950</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>85566678046</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>8950</v>
@@ -1206,16 +1199,16 @@
       <c r="D25" s="1">
         <v>8950</v>
       </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>88900011392</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>8950</v>
@@ -1223,16 +1216,16 @@
       <c r="D26" s="1">
         <v>8950</v>
       </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>92233344737</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>8950</v>
@@ -1240,16 +1233,16 @@
       <c r="D27" s="1">
         <v>8950</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>95566678082</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
         <v>8950</v>
@@ -1257,16 +1250,16 @@
       <c r="D28" s="1">
         <v>8950</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>98900011428</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>5777</v>
@@ -1274,16 +1267,16 @@
       <c r="D29" s="1">
         <v>8950</v>
       </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>8950</v>
@@ -1291,16 +1284,16 @@
       <c r="D30" s="1">
         <v>8950</v>
       </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <v>8950</v>
@@ -1308,16 +1301,16 @@
       <c r="D31" s="1">
         <v>8950</v>
       </c>
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>1300</v>
@@ -1325,16 +1318,16 @@
       <c r="D32" s="1">
         <v>8950</v>
       </c>
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <v>3394</v>
@@ -1342,16 +1335,16 @@
       <c r="D33" s="1">
         <v>8950</v>
       </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>1261</v>
@@ -1359,16 +1352,16 @@
       <c r="D34" s="1">
         <v>8950</v>
       </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>8950</v>
@@ -1376,16 +1369,16 @@
       <c r="D35" s="1">
         <v>8950</v>
       </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <v>8950</v>
@@ -1393,16 +1386,16 @@
       <c r="D36" s="1">
         <v>8950</v>
       </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>3673</v>
@@ -1410,16 +1403,16 @@
       <c r="D37" s="1">
         <v>8950</v>
       </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1">
         <v>8950</v>
@@ -1427,16 +1420,16 @@
       <c r="D38" s="1">
         <v>8950</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
         <v>8950</v>
@@ -1444,16 +1437,16 @@
       <c r="D39" s="1">
         <v>8950</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>8950</v>
@@ -1461,16 +1454,16 @@
       <c r="D40" s="1">
         <v>8950</v>
       </c>
-      <c r="E40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>8950</v>
@@ -1478,16 +1471,16 @@
       <c r="D41" s="1">
         <v>8950</v>
       </c>
-      <c r="E41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>2490</v>
@@ -1495,16 +1488,16 @@
       <c r="D42" s="1">
         <v>8950</v>
       </c>
-      <c r="E42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1">
         <v>8950</v>
@@ -1512,16 +1505,16 @@
       <c r="D43" s="1">
         <v>8950</v>
       </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1">
         <v>8950</v>
@@ -1529,16 +1522,16 @@
       <c r="D44" s="1">
         <v>8950</v>
       </c>
-      <c r="E44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>8950</v>
@@ -1546,16 +1539,16 @@
       <c r="D45" s="1">
         <v>8950</v>
       </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1">
         <v>8950</v>
@@ -1563,84 +1556,136 @@
       <c r="D46" s="1">
         <v>8950</v>
       </c>
-      <c r="E46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
       <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8950</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="1">
-        <v>8950</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8950</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8950</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="1">
-        <v>8950</v>
-      </c>
-      <c r="D48" s="1">
-        <v>8950</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
       <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8950</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="1">
-        <v>8950</v>
-      </c>
-      <c r="D49" s="1">
-        <v>8950</v>
-      </c>
-      <c r="E49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8950</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8950</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="1">
-        <v>8950</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8950</v>
-      </c>
-      <c r="E50" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E50" xr:uid="{CCE827DD-E67A-429B-BB9A-174E674BF63E}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A401FA3C-7E8B-4532-A7DF-FA8582C0A8BB}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1FA3C888-B031-45C1-A1D5-3449E6B9060B}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B722E660-F2E4-492F-A856-BC9CE379A63D}"/>
+    <hyperlink ref="E50" r:id="rId1" xr:uid="{DF3FC083-8B39-4AB7-93AA-96C78B1AEF93}"/>
+    <hyperlink ref="E43:E49" r:id="rId2" display="Erivan@gmail.com" xr:uid="{52E513CF-A640-41D1-95C7-7B3CEFC670E0}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{A1543D1C-4473-4A80-985B-D16B8596A18A}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{EED07492-D0A4-4559-A6D3-44A6DF3ABBF8}"/>
+    <hyperlink ref="E25" r:id="rId5" xr:uid="{9945766B-157F-4E75-BA0B-3BF677200EDA}"/>
+    <hyperlink ref="E33" r:id="rId6" xr:uid="{34C3545E-9BD2-403D-A0D9-57CEF1E6CD6D}"/>
+    <hyperlink ref="E41" r:id="rId7" xr:uid="{0EF6F204-7CD2-40B0-B2FC-22F0D2C03C46}"/>
+    <hyperlink ref="E2:E8" r:id="rId8" display="Erivan@gmail.com" xr:uid="{A7126B35-F31F-4279-B590-79498BAA1E1A}"/>
+    <hyperlink ref="E10:E16" r:id="rId9" display="Erivan@gmail.com" xr:uid="{29FEDED7-AE7F-43F2-9517-811FA0EE9CCA}"/>
+    <hyperlink ref="E18:E24" r:id="rId10" display="Erivan@gmail.com" xr:uid="{D48BB42C-8BD3-4D64-9B49-D936E821A94B}"/>
+    <hyperlink ref="E26:E32" r:id="rId11" display="Erivan@gmail.com" xr:uid="{ECE9D36E-B5CC-4DA3-B656-2B91999E501F}"/>
+    <hyperlink ref="E34:E40" r:id="rId12" display="Erivan@gmail.com" xr:uid="{54FE977A-3143-4CF2-9792-ACD0D08AF01C}"/>
+    <hyperlink ref="E42" r:id="rId13" xr:uid="{26A3A33F-ED91-474E-B1CF-FBC6F8F6125F}"/>
+    <hyperlink ref="E2" r:id="rId14" xr:uid="{77B4626F-F60C-4ABE-AFB3-10B1318890DC}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{BB2DBCC5-33F4-481D-B3F0-47C0F527F9B3}"/>
+    <hyperlink ref="E4" r:id="rId16" xr:uid="{1E6FC4B3-699B-4CE2-B591-D080EB06C23D}"/>
+    <hyperlink ref="E5" r:id="rId17" xr:uid="{2DE1E684-0354-4942-9763-2346E6C9350F}"/>
+    <hyperlink ref="E6" r:id="rId18" xr:uid="{A7D60FAE-082F-4810-A96F-CC44C0EF55FA}"/>
+    <hyperlink ref="E7" r:id="rId19" xr:uid="{86A98CDE-813B-4BDB-B7D5-518E48863A8D}"/>
+    <hyperlink ref="E8" r:id="rId20" xr:uid="{025CDCB9-78C1-4B43-94CB-B75D31767DBD}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{38C210CF-328F-443C-B2B8-4C92091FBC41}"/>
+    <hyperlink ref="E11" r:id="rId22" xr:uid="{8813F46C-B3C5-4226-B347-8C882CAC2795}"/>
+    <hyperlink ref="E12" r:id="rId23" xr:uid="{7D760721-9069-4E42-9130-7BD3577EACF8}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{C2E4E7D4-4D5F-4101-8F46-8316EEF3AC1D}"/>
+    <hyperlink ref="E14" r:id="rId25" xr:uid="{B7270A7D-07C2-4271-AFFD-6829156350B7}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{FD0B6D55-B5F0-4AB7-A492-8C671FBFAB95}"/>
+    <hyperlink ref="E16" r:id="rId27" xr:uid="{985B268A-6FA6-4C74-A83D-4E0E33FCDF2C}"/>
+    <hyperlink ref="E18" r:id="rId28" xr:uid="{3DF9591E-9BCF-422C-A4BE-38E1FB01D38B}"/>
+    <hyperlink ref="E19" r:id="rId29" xr:uid="{55F45C37-C307-4C8E-B512-6C41560AF3A4}"/>
+    <hyperlink ref="E20" r:id="rId30" xr:uid="{69546385-679A-4330-B69F-F39D95CAFCDE}"/>
+    <hyperlink ref="E21" r:id="rId31" xr:uid="{DEA9E544-C2AA-483C-9D07-7D49C53DE7B4}"/>
+    <hyperlink ref="E22" r:id="rId32" xr:uid="{C3107D19-EB9E-4249-A166-F150EDC9FFB4}"/>
+    <hyperlink ref="E23" r:id="rId33" xr:uid="{48CD246F-F13B-42AB-8742-AFC395E5F402}"/>
+    <hyperlink ref="E24" r:id="rId34" xr:uid="{E7063C26-D5BA-4AEA-9B8C-63A4B315C325}"/>
+    <hyperlink ref="E26" r:id="rId35" xr:uid="{6A0D3581-5463-467A-8DFC-A03A6FE051C6}"/>
+    <hyperlink ref="E27" r:id="rId36" xr:uid="{EC8D81EB-975A-4B96-A22F-BDCC9C2727C5}"/>
+    <hyperlink ref="E28" r:id="rId37" xr:uid="{F91A2EF1-8144-41C1-BD7E-9CEF879964FB}"/>
+    <hyperlink ref="E29" r:id="rId38" xr:uid="{748C1A71-A594-4FF9-BDB8-DC4BB8D7FBAC}"/>
+    <hyperlink ref="E30" r:id="rId39" xr:uid="{FE9FCA8E-6BFE-4E32-BFC3-64F81A5A888F}"/>
+    <hyperlink ref="E31" r:id="rId40" xr:uid="{A93105CC-99EB-4759-8D83-EB3C46D159E1}"/>
+    <hyperlink ref="E32" r:id="rId41" xr:uid="{B851E29C-E2D1-4046-AFE8-4FB63CBA4EDE}"/>
+    <hyperlink ref="E34" r:id="rId42" xr:uid="{4620F5FD-7108-401F-95BF-226C9DED010B}"/>
+    <hyperlink ref="E35" r:id="rId43" xr:uid="{5EA67262-47CE-44D0-8A08-4D8D8F94692E}"/>
+    <hyperlink ref="E36" r:id="rId44" xr:uid="{7E21A51D-31D5-4E6C-8ADD-AAD48110FF48}"/>
+    <hyperlink ref="E37" r:id="rId45" xr:uid="{52F2E0E5-ED9A-4CEB-A21B-A3F532132518}"/>
+    <hyperlink ref="E38" r:id="rId46" xr:uid="{AB1C6FAC-BA9F-4540-9B6F-FFE5883B6505}"/>
+    <hyperlink ref="E39" r:id="rId47" xr:uid="{9506C143-AB50-4623-B702-72096A80F92F}"/>
+    <hyperlink ref="E40" r:id="rId48" xr:uid="{B0C35530-82DA-4945-BEF4-13FBD657E368}"/>
+    <hyperlink ref="E43" r:id="rId49" xr:uid="{77E70A9E-6885-4B3D-BE88-EAC561BC0B06}"/>
+    <hyperlink ref="E44" r:id="rId50" xr:uid="{EF0C0195-0B47-47D9-A29D-BAE2CFDFCCDD}"/>
+    <hyperlink ref="E45" r:id="rId51" xr:uid="{2998B31D-F801-4AE3-8ED1-796966973FF5}"/>
+    <hyperlink ref="E46" r:id="rId52" xr:uid="{16384820-56DE-4A26-AFC1-9F13616EFE19}"/>
+    <hyperlink ref="E47" r:id="rId53" xr:uid="{C8EF68EF-0C3E-42EA-9FCB-6512CC04B14F}"/>
+    <hyperlink ref="E48" r:id="rId54" xr:uid="{EE6409E5-BCA9-4BCF-A1F4-92B2BF3DD4FB}"/>
+    <hyperlink ref="E49" r:id="rId55" xr:uid="{C4EC438A-D779-4EB4-A3B7-E16D0B4C9F21}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
